--- a/rolesExtraction.xlsx
+++ b/rolesExtraction.xlsx
@@ -444,42 +444,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>directory &gt; location &gt; edit</t>
+          <t>mobile &gt; collaborate &gt; view</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>documents &gt; audit &gt; view</t>
+          <t>chat &gt; chat &gt; access</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>externalContacts &gt; externalOrganization &gt; ALL</t>
+          <t>presence &gt; presenceDefinition &gt; view</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>oauth &gt; ALL &gt; ALL</t>
+          <t>contract &gt; freeTrial &gt; view</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>migrations &gt; organization &gt; view</t>
+          <t>video &gt; video &gt; access</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>chat &gt; chat &gt; access</t>
+          <t>attributes &gt; attribute &gt; view</t>
         </is>
       </c>
     </row>
@@ -493,77 +493,77 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>limits &gt; organization &gt; view</t>
+          <t>chat &gt; giphy &gt; access</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>contract &gt; freeTrial &gt; view</t>
+          <t>mobile &gt; communicate &gt; view</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>externalContacts &gt; contact &gt; ALL</t>
+          <t>directory &gt; location &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>attributes &gt; attribute &gt; view</t>
+          <t>migrations &gt; organization &gt; view</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mobile &gt; communicate &gt; view</t>
+          <t>externalContacts &gt; externalOrganization &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>chat &gt; giphy &gt; access</t>
+          <t>ui &gt; myOrganization &gt; view</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ui &gt; myOrganization &gt; view</t>
+          <t>pushnotification &gt; registration &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mobile &gt; collaborate &gt; view</t>
+          <t>documents &gt; audit &gt; view</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>video &gt; video &gt; access</t>
+          <t>externalContacts &gt; contact &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>presence &gt; presenceDefinition &gt; view</t>
+          <t>oauth &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pushnotification &gt; registration &gt; ALL</t>
+          <t>limits &gt; organization &gt; view</t>
         </is>
       </c>
     </row>
@@ -589,525 +589,525 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>chat &gt; setting &gt; view</t>
+          <t>chat &gt; usersettings &gt; view</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chat &gt; setting &gt; edit</t>
+          <t>chat &gt; usersettings &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>routing &gt; skill &gt; ALL</t>
+          <t>speechAndTextAnalytics &gt; data &gt; view</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conversation &gt; settings &gt; view</t>
+          <t>chat &gt; setting &gt; view</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conversation &gt; settings &gt; edit</t>
+          <t>chat &gt; setting &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>routing &gt; emergencyGroup &gt; ALL</t>
+          <t>billing &gt; productActivation &gt; view</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>presence &gt; presenceDefinition &gt; add</t>
+          <t>billing &gt; productActivation &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>presence &gt; presenceDefinition &gt; view</t>
+          <t>routing &gt; schedule &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>presence &gt; presenceDefinition &gt; edit</t>
+          <t>analytics &gt; conversationDetail &gt; view</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>presence &gt; presenceDefinition &gt; delete</t>
+          <t>widgets &gt; deployment &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>voicemail &gt; groupPolicy &gt; view</t>
+          <t>analytics &gt; userAggregate &gt; view</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>voicemail &gt; groupPolicy &gt; edit</t>
+          <t>limits &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>externalContacts &gt; contact &gt; ALL</t>
+          <t>analytics &gt; interactionSurveyDetails &gt; view</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cobrowse &gt; deployment &gt; manage</t>
+          <t>wfm &gt; schedulingrequest &gt; add</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>presence &gt; source &gt; add</t>
+          <t>wfm &gt; schedulingrequest &gt; view</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>presence &gt; source &gt; view</t>
+          <t>voicebots &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>presence &gt; source &gt; edit</t>
+          <t>documents &gt; audit &gt; search</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>presence &gt; source &gt; delete</t>
+          <t>bridge &gt; notification &gt; add</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>analytics &gt; dataRetention &gt; ALL</t>
+          <t>bridge &gt; notification &gt; view</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bridge &gt; serverFile &gt; add</t>
+          <t>wfm &gt; adhocModel &gt; add</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bridge &gt; serverFile &gt; request</t>
+          <t>wfm &gt; adhocModel &gt; view</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bridge &gt; serverFile &gt; view</t>
+          <t>bridge &gt; pluginType &gt; add</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>routing &gt; scheduleGroup &gt; ALL</t>
+          <t>bridge &gt; pluginType &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>conversation &gt; participant &gt; attributesview</t>
+          <t>chat &gt; file &gt; delete</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>authorization &gt; ALL &gt; ALL</t>
+          <t>conversation &gt; settings &gt; view</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bridge &gt; plugin &gt; add</t>
+          <t>conversation &gt; settings &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bridge &gt; plugin &gt; call</t>
+          <t>routing &gt; emergencyGroup &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bridge &gt; plugin &gt; view</t>
+          <t>cobrowse &gt; deployment &gt; manage</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bridge &gt; plugin &gt; edit</t>
+          <t>presence &gt; userPrimarySource &gt; view</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bridge &gt; plugin &gt; delete</t>
+          <t>presence &gt; userPrimarySource &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>attributes &gt; attribute &gt; add</t>
+          <t>externalContacts &gt; externalOrganization &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>attributes &gt; attribute &gt; view</t>
+          <t>externalContacts &gt; customFields &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>attributes &gt; attribute &gt; edit</t>
+          <t>attributes &gt; attribute &gt; add</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>attributes &gt; attribute &gt; delete</t>
+          <t>attributes &gt; attribute &gt; view</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>directory &gt; ALL &gt; ALL</t>
+          <t>attributes &gt; attribute &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>externalContacts &gt; identity &gt; promote</t>
+          <t>attributes &gt; attribute &gt; delete</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>externalContacts &gt; identity &gt; merge</t>
+          <t>analytics &gt; queueObservation &gt; view</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>integrations &gt; integration &gt; add</t>
+          <t>agentUI &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>integrations &gt; integration &gt; view</t>
+          <t>presence &gt; userPresence &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>integrations &gt; integration &gt; edit</t>
+          <t>bridge &gt; server &gt; add</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>integrations &gt; integration &gt; delete</t>
+          <t>bridge &gt; server &gt; view</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>presence &gt; userPrimarySource &gt; view</t>
+          <t>bridge &gt; server &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>presence &gt; userPrimarySource &gt; edit</t>
+          <t>bridge &gt; server &gt; delete</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bridge &gt; pluginType &gt; add</t>
+          <t>presence &gt; source &gt; add</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bridge &gt; pluginType &gt; edit</t>
+          <t>presence &gt; source &gt; view</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>geolocation &gt; settings &gt; edit</t>
+          <t>presence &gt; source &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>billing &gt; subscription &gt; add</t>
+          <t>presence &gt; source &gt; delete</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>billing &gt; subscription &gt; view</t>
+          <t>integrations &gt; action &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>billing &gt; subscription &gt; edit</t>
+          <t>wfm &gt; adhocForecast &gt; add</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>chat &gt; file &gt; delete</t>
+          <t>wfm &gt; adhocForecast &gt; view</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>infrastructureascode &gt; job &gt; add</t>
+          <t>audits &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>infrastructureascode &gt; job &gt; view</t>
+          <t>presence &gt; settings &gt; view</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>analytics &gt; interactionSurveyDetails &gt; view</t>
+          <t>presence &gt; settings &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>externalContacts &gt; customFields &gt; ALL</t>
+          <t>routing &gt; callRoute &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>routing &gt; callRoute &gt; ALL</t>
+          <t>authorization &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>processautomation &gt; ALL &gt; ALL</t>
+          <t>routing &gt; scheduleGroup &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>audits &gt; ALL &gt; ALL</t>
+          <t>processautomation &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bridge &gt; server &gt; add</t>
+          <t>geolocation &gt; settings &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bridge &gt; server &gt; view</t>
+          <t>bridge &gt; plugin &gt; add</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bridge &gt; server &gt; edit</t>
+          <t>bridge &gt; plugin &gt; call</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bridge &gt; server &gt; delete</t>
+          <t>bridge &gt; plugin &gt; view</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>chat &gt; usersettings &gt; view</t>
+          <t>bridge &gt; plugin &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>chat &gt; usersettings &gt; edit</t>
+          <t>bridge &gt; plugin &gt; delete</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>analytics &gt; conversationDetail &gt; view</t>
+          <t>integrations &gt; integration &gt; add</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>gdpr &gt; ALL &gt; ALL</t>
+          <t>integrations &gt; integration &gt; view</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>oauth &gt; ALL &gt; ALL</t>
+          <t>integrations &gt; integration &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>limits &gt; ALL &gt; ALL</t>
+          <t>integrations &gt; integration &gt; delete</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>infrastructureascode &gt; accelerator &gt; view</t>
+          <t>externalContacts &gt; contact &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>speechAndTextAnalytics &gt; data &gt; view</t>
+          <t>infrastructureascode &gt; accelerator &gt; view</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>analytics &gt; userAggregate &gt; view</t>
+          <t>webchat &gt; deployment &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wfm &gt; adhocModel &gt; add</t>
+          <t>telephony &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>wfm &gt; adhocModel &gt; view</t>
+          <t>webDeployments &gt; deployment &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>documents &gt; audit &gt; search</t>
+          <t>analytics &gt; dataRetention &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bridge &gt; publisher &gt; view</t>
+          <t>infrastructureascode &gt; job &gt; add</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>analytics &gt; interactionEvaluationDetails &gt; view</t>
+          <t>infrastructureascode &gt; job &gt; view</t>
         </is>
       </c>
     </row>
@@ -1149,182 +1149,182 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>widgets &gt; deployment &gt; ALL</t>
+          <t>conversation &gt; participant &gt; attributesview</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>geolocation &gt; geocoding &gt; fetch</t>
+          <t>billing &gt; subscription &gt; add</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>externalContacts &gt; externalEntity &gt; ALL</t>
+          <t>billing &gt; subscription &gt; view</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>routing &gt; schedule &gt; ALL</t>
+          <t>billing &gt; subscription &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>billing &gt; productActivation &gt; view</t>
+          <t>directory &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>billing &gt; productActivation &gt; edit</t>
+          <t>migrations &gt; organization &gt; view</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>bridge &gt; notification &gt; add</t>
+          <t>migrations &gt; organization &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bridge &gt; notification &gt; view</t>
+          <t>externalContacts &gt; identity &gt; promote</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>webDeployments &gt; deployment &gt; ALL</t>
+          <t>externalContacts &gt; identity &gt; merge</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>webDeployments &gt; configuration &gt; ALL</t>
+          <t>analytics &gt; interactionEvaluationDetails &gt; view</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>telephony &gt; ALL &gt; ALL</t>
+          <t>externalContacts &gt; externalEntity &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>presence &gt; userPresence &gt; edit</t>
+          <t>routing &gt; skill &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>presence &gt; settings &gt; view</t>
+          <t>voicemail &gt; groupPolicy &gt; view</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>presence &gt; settings &gt; edit</t>
+          <t>voicemail &gt; groupPolicy &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>migrations &gt; organization &gt; view</t>
+          <t>gdpr &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>migrations &gt; organization &gt; edit</t>
+          <t>bridge &gt; publisher &gt; view</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>voicebots &gt; ALL &gt; ALL</t>
+          <t>webDeployments &gt; configuration &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>agentUI &gt; ALL &gt; ALL</t>
+          <t>bridge &gt; serverFile &gt; add</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>externalContacts &gt; externalOrganization &gt; ALL</t>
+          <t>bridge &gt; serverFile &gt; request</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>wfm &gt; adhocForecast &gt; add</t>
+          <t>bridge &gt; serverFile &gt; view</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>wfm &gt; adhocForecast &gt; view</t>
+          <t>presence &gt; presenceDefinition &gt; add</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>analytics &gt; queueObservation &gt; view</t>
+          <t>presence &gt; presenceDefinition &gt; view</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>wfm &gt; schedulingrequest &gt; add</t>
+          <t>presence &gt; presenceDefinition &gt; edit</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>wfm &gt; schedulingrequest &gt; view</t>
+          <t>presence &gt; presenceDefinition &gt; delete</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>webchat &gt; deployment &gt; ALL</t>
+          <t>oauth &gt; ALL &gt; ALL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>integrations &gt; action &gt; ALL</t>
+          <t>geolocation &gt; geocoding &gt; fetch</t>
         </is>
       </c>
     </row>
